--- a/data/extracted_data/const1/const1-trial2-tdoa3-results-updated-describe.xlsx
+++ b/data/extracted_data/const1/const1-trial2-tdoa3-results-updated-describe.xlsx
@@ -605,7 +605,7 @@
         <v>1.431747606805761</v>
       </c>
       <c r="F3">
-        <v>0.01488273046590791</v>
+        <v>0.01261939765128065</v>
       </c>
       <c r="G3">
         <v>0.9076035015336267</v>
@@ -620,7 +620,7 @@
         <v>0.539033077873155</v>
       </c>
       <c r="K3">
-        <v>0.003963895558497625</v>
+        <v>0.003658343944234255</v>
       </c>
       <c r="L3">
         <v>3.525583836263448</v>
@@ -650,7 +650,7 @@
         <v>1.425648546452127</v>
       </c>
       <c r="U3">
-        <v>41.35878892285489</v>
+        <v>41.36251842256334</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -670,7 +670,7 @@
         <v>0.3552200942411655</v>
       </c>
       <c r="F4">
-        <v>0.2631601113542783</v>
+        <v>0.01401041366617331</v>
       </c>
       <c r="G4">
         <v>8.915274665001288</v>
@@ -685,7 +685,7 @@
         <v>6.422131611108925</v>
       </c>
       <c r="K4">
-        <v>0.004522580889639014</v>
+        <v>0.004210803574980748</v>
       </c>
       <c r="L4">
         <v>2.386377380512378</v>
@@ -715,7 +715,7 @@
         <v>0.3533937364383288</v>
       </c>
       <c r="U4">
-        <v>23.65290699455459</v>
+        <v>23.65289259991565</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -780,7 +780,7 @@
         <v>0.0769999995827674</v>
       </c>
       <c r="U5">
-        <v>0.0023779999999969</v>
+        <v>0.005532666666666</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -845,7 +845,7 @@
         <v>1.201333324114482</v>
       </c>
       <c r="U6">
-        <v>21.12981125</v>
+        <v>21.136627</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -880,7 +880,7 @@
         <v>0.7178422917338715</v>
       </c>
       <c r="K7">
-        <v>0.002634286880493164</v>
+        <v>0.003049612045288086</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -910,7 +910,7 @@
         <v>1.429666638374329</v>
       </c>
       <c r="U7">
-        <v>41.3750565</v>
+        <v>41.378841</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -930,7 +930,7 @@
         <v>1.720237170587742</v>
       </c>
       <c r="F8">
-        <v>0.02788078784942627</v>
+        <v>0.02654612064361572</v>
       </c>
       <c r="G8">
         <v>0.0001616446127198912</v>
@@ -945,7 +945,7 @@
         <v>1.732499964790112</v>
       </c>
       <c r="K8">
-        <v>0.007999658584594727</v>
+        <v>0.007341325283050537</v>
       </c>
       <c r="L8">
         <v>6</v>
@@ -975,7 +975,7 @@
         <v>1.718000054359436</v>
       </c>
       <c r="U8">
-        <v>61.6366735</v>
+        <v>61.63930225</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -995,7 +995,7 @@
         <v>2.029058354040713</v>
       </c>
       <c r="F9">
-        <v>39.74437355995178</v>
+        <v>0.08806324005126953</v>
       </c>
       <c r="G9">
         <v>237.627945255114</v>
@@ -1010,7 +1010,7 @@
         <v>807.8436721485352</v>
       </c>
       <c r="K9">
-        <v>0.05468869209289551</v>
+        <v>0.03828167915344238</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -1040,7 +1040,7 @@
         <v>1.875</v>
       </c>
       <c r="U9">
-        <v>82.663296</v>
+        <v>82.66606733333334</v>
       </c>
     </row>
   </sheetData>
